--- a/data/trans_bre/IP19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 20,52</t>
+          <t>2,34; 20,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 6,86</t>
+          <t>-6,11; 6,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 9,53</t>
+          <t>-31,72; 10,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 19,52</t>
+          <t>-33,8; 18,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; —</t>
+          <t>-23,22; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 35,25</t>
+          <t>-67,76; 39,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 59,15</t>
+          <t>-53,84; 55,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,61</t>
+          <t>-3,44; 3,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,93</t>
+          <t>-3,74; 3,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,86</t>
+          <t>-7,08; 4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 4,27</t>
+          <t>-10,88; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 77,91</t>
+          <t>-40,51; 70,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 96,02</t>
+          <t>-48,88; 84,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 28,92</t>
+          <t>-30,64; 25,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 14,38</t>
+          <t>-27,73; 13,08</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 4,1</t>
+          <t>-10,87; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 3,83</t>
+          <t>-10,77; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 14,39</t>
+          <t>-3,76; 13,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 10,67</t>
+          <t>-11,11; 9,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,03; 106,39</t>
+          <t>-81,91; 72,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,46; 87,06</t>
+          <t>-80,66; 75,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 173,65</t>
+          <t>-24,74; 169,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 49,07</t>
+          <t>-34,39; 41,21</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,79</t>
+          <t>-2,74; 3,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,29</t>
+          <t>-3,52; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,11</t>
+          <t>-5,6; 4,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,23</t>
+          <t>-8,07; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 66,63</t>
+          <t>-32,65; 70,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 45,6</t>
+          <t>-45,89; 45,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 23,51</t>
+          <t>-25,92; 24,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 13,67</t>
+          <t>-22,43; 12,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>-13,8%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 20,73</t>
+          <t>2,06; 20,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 6,78</t>
+          <t>-5,92; 6,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 10,18</t>
+          <t>-31,22; 11,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 18,82</t>
+          <t>-32,82; 21,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,22; —</t>
+          <t>-12,46; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,76; 39,66</t>
+          <t>-67,97; 43,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 55,19</t>
+          <t>-56,08; 72,97</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>-8,77%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,47</t>
+          <t>-3,52; 3,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,51</t>
+          <t>-3,39; 3,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,52</t>
+          <t>-7,75; 4,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 4,16</t>
+          <t>-10,41; 3,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 70,91</t>
+          <t>-43,06; 73,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 84,18</t>
+          <t>-45,07; 92,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 25,75</t>
+          <t>-32,89; 26,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 13,08</t>
+          <t>-27,94; 11,82</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,41</t>
+          <t>-10,81; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,44</t>
+          <t>-10,12; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 13,53</t>
+          <t>-2,9; 15,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 9,05</t>
+          <t>-9,79; 9,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,91; 72,76</t>
+          <t>-81,8; 81,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,66; 75,62</t>
+          <t>-80,87; 75,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 169,51</t>
+          <t>-22,34; 191,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 41,21</t>
+          <t>-34,02; 46,72</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-5,64%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,82</t>
+          <t>-2,18; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,2</t>
+          <t>-3,45; 2,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,01</t>
+          <t>-5,33; 4,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,84</t>
+          <t>-7,83; 3,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 70,67</t>
+          <t>-28,06; 77,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 45,51</t>
+          <t>-43,59; 44,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 24,34</t>
+          <t>-24,63; 24,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 12,34</t>
+          <t>-22,12; 13,52</t>
         </is>
       </c>
     </row>
